--- a/SchedulingData/dynamic13/pso/scheduling2_7.xlsx
+++ b/SchedulingData/dynamic13/pso/scheduling2_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,154 +462,154 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>227.26</v>
+        <v>214.24</v>
       </c>
       <c r="D2" t="n">
-        <v>277.92</v>
+        <v>267.08</v>
       </c>
       <c r="E2" t="n">
-        <v>11.408</v>
+        <v>12.472</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>201.46</v>
+        <v>241.62</v>
       </c>
       <c r="D3" t="n">
-        <v>250.88</v>
+        <v>296.04</v>
       </c>
       <c r="E3" t="n">
-        <v>15.052</v>
+        <v>14.996</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>231.9</v>
+        <v>217.08</v>
       </c>
       <c r="D4" t="n">
-        <v>288.98</v>
+        <v>277.06</v>
       </c>
       <c r="E4" t="n">
-        <v>11.772</v>
+        <v>12.984</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>288.98</v>
+        <v>277.06</v>
       </c>
       <c r="D5" t="n">
-        <v>339.06</v>
+        <v>331.28</v>
       </c>
       <c r="E5" t="n">
-        <v>8.384</v>
+        <v>10.652</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>215.26</v>
+        <v>248.7</v>
       </c>
       <c r="D6" t="n">
-        <v>259.62</v>
+        <v>295.36</v>
       </c>
       <c r="E6" t="n">
-        <v>15.548</v>
+        <v>12.624</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>277.92</v>
+        <v>296.04</v>
       </c>
       <c r="D7" t="n">
-        <v>334.02</v>
+        <v>355.74</v>
       </c>
       <c r="E7" t="n">
-        <v>8.407999999999999</v>
+        <v>11.156</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>334.02</v>
+        <v>331.28</v>
       </c>
       <c r="D8" t="n">
-        <v>402.8</v>
+        <v>408.68</v>
       </c>
       <c r="E8" t="n">
-        <v>5.6</v>
+        <v>7.012</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>237.96</v>
+        <v>295.36</v>
       </c>
       <c r="D9" t="n">
-        <v>305.6</v>
+        <v>362.66</v>
       </c>
       <c r="E9" t="n">
-        <v>12.14</v>
+        <v>9.504</v>
       </c>
     </row>
     <row r="10">
@@ -618,17 +618,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>250.88</v>
+        <v>362.66</v>
       </c>
       <c r="D10" t="n">
-        <v>317.88</v>
+        <v>420.46</v>
       </c>
       <c r="E10" t="n">
-        <v>10.972</v>
+        <v>7.344</v>
       </c>
     </row>
     <row r="11">
@@ -637,55 +637,55 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>220.76</v>
+        <v>227.7</v>
       </c>
       <c r="D11" t="n">
-        <v>264.32</v>
+        <v>280.86</v>
       </c>
       <c r="E11" t="n">
-        <v>15.088</v>
+        <v>12.044</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>259.62</v>
+        <v>280.86</v>
       </c>
       <c r="D12" t="n">
-        <v>310.68</v>
+        <v>337.86</v>
       </c>
       <c r="E12" t="n">
-        <v>11.572</v>
+        <v>9.964</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>264.32</v>
+        <v>219.02</v>
       </c>
       <c r="D13" t="n">
-        <v>309.84</v>
+        <v>293.42</v>
       </c>
       <c r="E13" t="n">
-        <v>12.176</v>
+        <v>12.828</v>
       </c>
     </row>
     <row r="14">
@@ -694,131 +694,131 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>317.88</v>
+        <v>420.46</v>
       </c>
       <c r="D14" t="n">
-        <v>377.88</v>
+        <v>459.84</v>
       </c>
       <c r="E14" t="n">
-        <v>8.552</v>
+        <v>4.536</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>305.6</v>
+        <v>355.74</v>
       </c>
       <c r="D15" t="n">
-        <v>357.5</v>
+        <v>401.24</v>
       </c>
       <c r="E15" t="n">
-        <v>9.06</v>
+        <v>8.736000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>357.5</v>
+        <v>337.86</v>
       </c>
       <c r="D16" t="n">
-        <v>395.3</v>
+        <v>395.86</v>
       </c>
       <c r="E16" t="n">
-        <v>6.9</v>
+        <v>4.804</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>395.3</v>
+        <v>408.68</v>
       </c>
       <c r="D17" t="n">
-        <v>469.96</v>
+        <v>463.8</v>
       </c>
       <c r="E17" t="n">
-        <v>4.524</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>377.88</v>
+        <v>293.42</v>
       </c>
       <c r="D18" t="n">
-        <v>433.6</v>
+        <v>375.62</v>
       </c>
       <c r="E18" t="n">
-        <v>4.6</v>
+        <v>9.708</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>310.68</v>
+        <v>267.08</v>
       </c>
       <c r="D19" t="n">
-        <v>375.26</v>
+        <v>307.24</v>
       </c>
       <c r="E19" t="n">
-        <v>8.244</v>
+        <v>10.096</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>433.6</v>
+        <v>375.62</v>
       </c>
       <c r="D20" t="n">
-        <v>482.78</v>
+        <v>421.04</v>
       </c>
       <c r="E20" t="n">
-        <v>1.792</v>
+        <v>6.796</v>
       </c>
     </row>
     <row r="21">
@@ -827,150 +827,150 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>482.78</v>
+        <v>459.84</v>
       </c>
       <c r="D21" t="n">
-        <v>551.1</v>
+        <v>522.04</v>
       </c>
       <c r="E21" t="n">
-        <v>30</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>309.84</v>
+        <v>522.04</v>
       </c>
       <c r="D22" t="n">
-        <v>359.7</v>
+        <v>598.13</v>
       </c>
       <c r="E22" t="n">
-        <v>9.800000000000001</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>375.26</v>
+        <v>395.86</v>
       </c>
       <c r="D23" t="n">
-        <v>416.52</v>
+        <v>471.22</v>
       </c>
       <c r="E23" t="n">
-        <v>5.748</v>
+        <v>1.388</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>339.06</v>
+        <v>471.22</v>
       </c>
       <c r="D24" t="n">
-        <v>407.84</v>
+        <v>569.9400000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>5.576</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>359.7</v>
+        <v>598.13</v>
       </c>
       <c r="D25" t="n">
-        <v>416.92</v>
+        <v>636.9299999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>7.208</v>
+        <v>26.82</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>407.84</v>
+        <v>569.9400000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>448</v>
+        <v>629.54</v>
       </c>
       <c r="E26" t="n">
-        <v>3.2</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>551.1</v>
+        <v>307.24</v>
       </c>
       <c r="D27" t="n">
-        <v>616.02</v>
+        <v>361.84</v>
       </c>
       <c r="E27" t="n">
-        <v>27.668</v>
+        <v>7.236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>469.96</v>
+        <v>401.24</v>
       </c>
       <c r="D28" t="n">
-        <v>524.5599999999999</v>
+        <v>442.4</v>
       </c>
       <c r="E28" t="n">
-        <v>1.664</v>
+        <v>6.24</v>
       </c>
     </row>
     <row r="29">
@@ -979,17 +979,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>524.5599999999999</v>
+        <v>361.84</v>
       </c>
       <c r="D29" t="n">
-        <v>608.03</v>
+        <v>431.8</v>
       </c>
       <c r="E29" t="n">
-        <v>30</v>
+        <v>4.86</v>
       </c>
     </row>
     <row r="30">
@@ -998,17 +998,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>416.52</v>
+        <v>463.8</v>
       </c>
       <c r="D30" t="n">
-        <v>461.26</v>
+        <v>524.88</v>
       </c>
       <c r="E30" t="n">
-        <v>2.404</v>
+        <v>1.132</v>
       </c>
     </row>
     <row r="31">
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>461.26</v>
+        <v>524.88</v>
       </c>
       <c r="D31" t="n">
-        <v>538.15</v>
+        <v>604.42</v>
       </c>
       <c r="E31" t="n">
         <v>30</v>
@@ -1032,40 +1032,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>538.15</v>
+        <v>442.4</v>
       </c>
       <c r="D32" t="n">
-        <v>576.95</v>
+        <v>495</v>
       </c>
       <c r="E32" t="n">
-        <v>26.82</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>608.03</v>
+        <v>421.04</v>
       </c>
       <c r="D33" t="n">
-        <v>688.6900000000001</v>
+        <v>473.16</v>
       </c>
       <c r="E33" t="n">
-        <v>26.584</v>
+        <v>4.204</v>
       </c>
     </row>
     <row r="34">
@@ -1074,17 +1074,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>402.8</v>
+        <v>473.16</v>
       </c>
       <c r="D34" t="n">
-        <v>456.14</v>
+        <v>525.24</v>
       </c>
       <c r="E34" t="n">
-        <v>2.376</v>
+        <v>1.136</v>
       </c>
     </row>
     <row r="35">
@@ -1093,14 +1093,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>456.14</v>
+        <v>525.24</v>
       </c>
       <c r="D35" t="n">
-        <v>538.09</v>
+        <v>599.77</v>
       </c>
       <c r="E35" t="n">
         <v>30</v>
@@ -1108,102 +1108,102 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>538.09</v>
+        <v>431.8</v>
       </c>
       <c r="D36" t="n">
-        <v>590.5700000000001</v>
+        <v>492.52</v>
       </c>
       <c r="E36" t="n">
-        <v>26.932</v>
+        <v>1.428</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>448</v>
+        <v>492.52</v>
       </c>
       <c r="D37" t="n">
-        <v>493.32</v>
+        <v>561.66</v>
       </c>
       <c r="E37" t="n">
-        <v>0.288</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>493.32</v>
+        <v>636.9299999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>579.54</v>
+        <v>681.41</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>24.012</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>576.95</v>
+        <v>495</v>
       </c>
       <c r="D39" t="n">
-        <v>635.95</v>
+        <v>549.66</v>
       </c>
       <c r="E39" t="n">
-        <v>23.52</v>
+        <v>0.224</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>635.95</v>
+        <v>549.66</v>
       </c>
       <c r="D40" t="n">
-        <v>692.85</v>
+        <v>631.11</v>
       </c>
       <c r="E40" t="n">
-        <v>21.44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1211,70 +1211,51 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>616.02</v>
+        <v>561.66</v>
       </c>
       <c r="D41" t="n">
-        <v>699.04</v>
+        <v>620.48</v>
       </c>
       <c r="E41" t="n">
-        <v>24.476</v>
+        <v>26.808</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>416.92</v>
+        <v>631.11</v>
       </c>
       <c r="D42" t="n">
-        <v>472.02</v>
+        <v>676.09</v>
       </c>
       <c r="E42" t="n">
-        <v>4.808</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>472.02</v>
+        <v>604.42</v>
       </c>
       <c r="D43" t="n">
-        <v>524.42</v>
+        <v>656.92</v>
       </c>
       <c r="E43" t="n">
-        <v>2.168</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>5</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>pond14</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>590.5700000000001</v>
-      </c>
-      <c r="D44" t="n">
-        <v>626.65</v>
-      </c>
-      <c r="E44" t="n">
-        <v>23.964</v>
+        <v>26.92</v>
       </c>
     </row>
   </sheetData>
